--- a/data/DHS2025_Agenda.xlsx
+++ b/data/DHS2025_Agenda.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.novartis.net/personal/asokaar1_novartis_net/Documents/Personal/Work Personal/Conference/AV 2025/Agentic KAG/codes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66C783D6-079A-42F9-A263-D437FB637739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{66C783D6-079A-42F9-A263-D437FB637739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46D19B9-7887-46A8-9A61-924FD8A7E3CA}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Agenda!$A$1:$H$95</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="212">
   <si>
     <t>Day</t>
   </si>
@@ -361,9 +364,6 @@
     <t>From Language to Robotics: Practical Lessons Bridging LLMs, RL, and AI</t>
   </si>
   <si>
-    <t>Building Fast and Accurate Conversational Agents: Beyond Function Calling</t>
-  </si>
-  <si>
     <t>Full-Stack Agentic AI: Build, Evaluate, and Scale with NVIDIA Tools</t>
   </si>
   <si>
@@ -418,9 +418,6 @@
     <t>AV Luminary Awards - Top 7 AI Community Contributors</t>
   </si>
   <si>
-    <t>Architecting Intelligence: Practical Patterns for Multi-Agentic Workflows</t>
-  </si>
-  <si>
     <t>AutoGen vs CrewAI vs LangGraph: Battle of the Agent Frameworks</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>From Vision to Action: Multi-Modal Agentic AI in Real-World Use</t>
   </si>
   <si>
-    <t>Empowering Data Insights with Large Language Models (LLMs)</t>
-  </si>
-  <si>
     <t>Automate Everything: Building Agentic AI Workflows with No-Code Tools</t>
   </si>
   <si>
@@ -463,9 +457,6 @@
     <t>Mastering Agentic Workflows with LangGraph</t>
   </si>
   <si>
-    <t>AI Voice Agents: The Future of Human-Computer Interaction</t>
-  </si>
-  <si>
     <t>Building Real-Time Multi-Agent AI for Public Travel Systems</t>
   </si>
   <si>
@@ -656,6 +647,18 @@
   </si>
   <si>
     <t>Avinash Pathak</t>
+  </si>
+  <si>
+    <t>AI Voice Agent: The Future of Human-Computer Interaction</t>
+  </si>
+  <si>
+    <t>Empowering Data Insights with Large Language Models</t>
+  </si>
+  <si>
+    <t>Fast and Accurate Conversational Agents: Beyond Function Calling</t>
+  </si>
+  <si>
+    <t>Architecting AI: Practical Patterns for Multi-Agentic Workflows</t>
   </si>
 </sst>
 </file>
@@ -1023,24 +1026,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1089,10 +1093,10 @@
         <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1115,10 +1119,10 @@
         <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1187,10 +1191,10 @@
         <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1213,10 +1217,10 @@
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1262,10 +1266,10 @@
         <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1288,10 +1292,10 @@
         <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1337,10 +1341,10 @@
         <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1363,10 +1367,10 @@
         <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1389,10 +1393,10 @@
         <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1438,10 +1442,10 @@
         <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1464,10 +1468,10 @@
         <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1513,10 +1517,10 @@
         <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1539,10 +1543,10 @@
         <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1565,10 +1569,10 @@
         <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1614,10 +1618,10 @@
         <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1640,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1689,10 +1693,10 @@
         <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1715,10 +1719,10 @@
         <v>102</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1790,10 +1794,10 @@
         <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1816,10 +1820,10 @@
         <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1842,10 +1846,10 @@
         <v>105</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1891,10 +1895,10 @@
         <v>106</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1940,10 +1944,10 @@
         <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1989,10 +1993,10 @@
         <v>109</v>
       </c>
       <c r="H38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2015,10 +2019,10 @@
         <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2064,10 +2068,10 @@
         <v>111</v>
       </c>
       <c r="H41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2090,10 +2094,10 @@
         <v>112</v>
       </c>
       <c r="H42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2113,13 +2117,13 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2162,13 +2166,13 @@
         <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2188,13 +2192,13 @@
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2237,13 +2241,13 @@
         <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2263,13 +2267,13 @@
         <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2289,13 +2293,13 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2338,13 +2342,13 @@
         <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H52" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2364,13 +2368,13 @@
         <v>75</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2390,13 +2394,13 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2439,13 +2443,13 @@
         <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2465,13 +2469,13 @@
         <v>27</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2491,13 +2495,13 @@
         <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2540,13 +2544,13 @@
         <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2566,13 +2570,13 @@
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2615,13 +2619,13 @@
         <v>81</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2641,13 +2645,13 @@
         <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2667,13 +2671,13 @@
         <v>62</v>
       </c>
       <c r="G65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2716,13 +2720,13 @@
         <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H67" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2742,10 +2746,10 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2765,13 +2769,13 @@
         <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="H69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2814,13 +2818,13 @@
         <v>68</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H71" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2840,13 +2844,13 @@
         <v>66</v>
       </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H72" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2889,13 +2893,13 @@
         <v>76</v>
       </c>
       <c r="G74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2915,13 +2919,13 @@
         <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2941,13 +2945,13 @@
         <v>62</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H76" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2967,13 +2971,13 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H77" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3016,13 +3020,13 @@
         <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H79" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3042,13 +3046,13 @@
         <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H80" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3117,13 +3121,13 @@
         <v>62</v>
       </c>
       <c r="G83" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3143,13 +3147,13 @@
         <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H84" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3192,13 +3196,13 @@
         <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H86" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3218,13 +3222,13 @@
         <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3267,13 +3271,13 @@
         <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H89" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3293,13 +3297,13 @@
         <v>62</v>
       </c>
       <c r="G90" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H90" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3319,13 +3323,13 @@
         <v>49</v>
       </c>
       <c r="G91" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="H91" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3368,13 +3372,13 @@
         <v>56</v>
       </c>
       <c r="G93" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H93" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3394,13 +3398,13 @@
         <v>69</v>
       </c>
       <c r="G94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3423,183 +3427,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>136</v>
-      </c>
-      <c r="H96" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" t="s">
-        <v>61</v>
-      </c>
-      <c r="F97" t="s">
-        <v>62</v>
-      </c>
-      <c r="G97" t="s">
-        <v>137</v>
-      </c>
-      <c r="H97" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98" t="s">
-        <v>138</v>
-      </c>
-      <c r="H98" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" t="s">
-        <v>40</v>
-      </c>
-      <c r="G99" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s">
-        <v>55</v>
-      </c>
-      <c r="G100" t="s">
-        <v>139</v>
-      </c>
-      <c r="H100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" t="s">
-        <v>68</v>
-      </c>
-      <c r="F101" t="s">
-        <v>69</v>
-      </c>
-      <c r="G101" t="s">
-        <v>140</v>
-      </c>
-      <c r="H101" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" t="s">
-        <v>69</v>
-      </c>
-      <c r="F102" t="s">
-        <v>67</v>
-      </c>
-      <c r="G102" t="s">
-        <v>85</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:H95" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/DHS2025_Agenda.xlsx
+++ b/data/DHS2025_Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.novartis.net/personal/asokaar1_novartis_net/Documents/Personal/Work Personal/Conference/AV 2025/Agentic KAG/codes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{66C783D6-079A-42F9-A263-D437FB637739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46D19B9-7887-46A8-9A61-924FD8A7E3CA}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{66C783D6-079A-42F9-A263-D437FB637739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EFF6A24-9315-44DA-B29D-F6467F0EDC18}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Agenda!$A$1:$H$95</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="215">
   <si>
     <t>Day</t>
   </si>
@@ -659,6 +672,15 @@
   </si>
   <si>
     <t>Architecting AI: Practical Patterns for Multi-Agentic Workflows</t>
+  </si>
+  <si>
+    <t>Evolution of Intelligence &amp; You</t>
+  </si>
+  <si>
+    <t>Agentic AI for Business Users: Building without Code in Cogentiq</t>
+  </si>
+  <si>
+    <t>Ganesh Subramanian</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1311,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
         <v>151</v>
@@ -3095,10 +3117,10 @@
         <v>27</v>
       </c>
       <c r="G82" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="H82" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
